--- a/data/hotels_by_city/Houston/Houston_shard_621.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_621.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55536-d816863-Reviews-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
   </si>
   <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Super-8-By-Wyndham-Brookshire-TX.h1784760.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1506 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r582943455-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>55536</t>
+  </si>
+  <si>
+    <t>816863</t>
+  </si>
+  <si>
+    <t>582943455</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>A+ All around</t>
+  </si>
+  <si>
+    <t>Im a diamond member with Wyndham and Stayed with wife and 2 kids and it was very clean, great customer service, and comfortable.I travel all over the u.s. and this super 8 is they way they all should be.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r581550309-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>581550309</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>A vile dump</t>
+  </si>
+  <si>
+    <t>Stinks of chemicals, breakfast was a joke. Stay away. This cost $100 on a saturday night, iI wouldnt have stayed there after the first night if they paid me $100. They provided one tiny towel not enough to dry my hands let alone my whole body after a shower.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r571007972-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>571007972</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Super 8 was Super disappointing!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front girl was not friendly at all. I felt like I was inconveniencing her. Bed was about as soft as sleeping on plywood with a sheet over it. The shower faucet appeared as if it was extremely loose and about to fall off the wall.  I just sucked it up and decided I'd never stay at a Super 8 again.   </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r550513451-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>550513451</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at this Super 8 almost ten years ago when it was brand new while traveling to CA from FL and had an excellent experience.  On a recent return trip, I stayed there again and had an equally pleasant experience.  The male front desk clerk was very friendly and accommodating.  The single room was large with a large bathroom.  The property was well maintained and looked almost as good as it did ten years ago.    </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r540931559-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>540931559</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Horrid Hotel</t>
+  </si>
+  <si>
+    <t>This hotel looked rundown and it smelled. We had to go purchased Lysol and FaBreeze. There was NEVER EVER anyone at the counter. They NEVER answered the phone. I wouldn't DARE eat at this place due to the smell. WAY AS FAST AS YOU CAN! STRANGER DANGER</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r539774460-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>539774460</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Great quick stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close to Houston. It was clean and staff was very sweet.  Breakfast really is just quick things, cold cereal etc. They did have a waffle maker. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r534147437-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>534147437</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r532465576-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>532465576</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r531731912-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>531731912</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r524312542-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>524312542</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Not Happy</t>
+  </si>
+  <si>
+    <t>The staff was courteous and helpful.  Unfortunately the hotel is not a good quality . My room smells like marijuana.  The shower was not clean hair was still in the shower .   The following day housekeeping can empty trash changed towels but did not make the bed.  The walls are super thin.   The guest next-door were very loud and sounds like the kids were bouncing off the wall. I was very uncomfortable in this hotel</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r521566678-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>521566678</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Stayed the night Hurricane Harvey came in, lost lights from 6 a.m. to 9:30 a.m.  but everything was safe and comfortable.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r521454382-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>521454382</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis and crew did a great job accommodating everyone with the staff that they had this past weekend. Super 8 had evacuees, DPS, and families staying there who were helping hurricane victims. The hotel set up food and drinks in the lobby for everyone and couldn't have been more accommodating. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r511478889-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>511478889</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Very nice and clean . Staff was very polite and helpful...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice and clean . Staff was very polite and helpful. Would definitely stay again when in the area. Easy access to several places to eat. Many choices </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r501584343-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>501584343</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r486270118-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>486270118</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r479514940-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>479514940</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r475842784-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>475842784</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Road Trip</t>
+  </si>
+  <si>
+    <t>Very good hotel for over night stay with great value.  Very friendly staff.  I would use the members again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r471848577-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>471848577</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r460395735-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>460395735</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r452665567-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>452665567</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>My stay at Super 8 on 1/13/2017 was very good.  My only...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay at Super 8 on 1/13/2017 was very good.  My only complaint is that the water pressure in the shower was very low.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r450215611-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>450215611</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I would very much recommend this hotel to anyone needing a professional. private place to stay...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r443780616-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>443780616</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Not too pleased with our stay</t>
+  </si>
+  <si>
+    <t>My Problems - 1. wanted to pay cash when we left in AM. Desk person said we couldn't do that so had to put it on the credit card  2. towels were super thin, should have 2 per person  3. shower spray went everywhere but on showerer  4. no stopper  in the sink.  However, the bed was firm and very comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r434772374-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>434772374</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Curry,Carpets,Elevators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The place reeked of curry all of the first floor. Carpets were in process of being replaced... the old carpets were in bad shape and dirty...the new carpet was pleasant  but not installed correctly...  The Elevators were very dirty and smeled awful... somewhere between curry and wet puppies. With a little motivation and effort, the place would be a convenient  location... Oh and loose about half of the fake floral in the lobby. Looks gaudy </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r425613948-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>425613948</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Looks nice</t>
+  </si>
+  <si>
+    <t>The walls were so thin, I could hear the amorous pleasures of the adjacent room.  There was a cigarette odor that came through the bathroom vent despite having a non-smoking room. The room had a slight odor reminiscent of wet laundry but it was not a mildewy odor. Barely a WIFI signal and was unable to connect due to it being so weak. What else would you expect of a Super 8?</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r417190772-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>417190772</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r417148031-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>417148031</t>
+  </si>
+  <si>
+    <t>RZeigler review_Sept 7 n 8</t>
+  </si>
+  <si>
+    <t>Good Rate I received.....Problem was for 2 days the batteries in the smoke detector chirped,,I reported but not fixed...,Not</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r414367280-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>414367280</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r410227977-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>410227977</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at this location for 3 1/2 months. Room was always cleaned, beds are very comfy, and the staff was very accommodating. Would strongly recommend this hotel. For one night or long term, you can't go wrong </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r404550636-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>404550636</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>buggy</t>
+  </si>
+  <si>
+    <t>All was good, but not as clean as other Super 8 I've stayed at.  There were dead bugs in the dinning room and hall way.  They ran out of some foods were unable to refill them.  A bit disorganized.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r400446718-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>400446718</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>smelly hot room</t>
+  </si>
+  <si>
+    <t>This is a great place to stay if you pull a trailer, parking is two blocks away, after getting to my room that smells like mildew and was 101 degrees when I walked in, it only took about a hour to cool down,  Room could use a over all too!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r378731391-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>378731391</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r371878678-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>371878678</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Nice room and nice owners!</t>
+  </si>
+  <si>
+    <t>Spacious room, clean and comfortable beds. The workers were all very hospitable. We enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r366830079-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>366830079</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Will stay again .</t>
+  </si>
+  <si>
+    <t>friendy  people that will help you with any problem that you may have. Rooms are real nice and clean. Only problem I had was on the last morning they ran out of coffee at the breakfast area.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r356822906-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>356822906</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r351849448-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>351849448</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Super 8 should be embarrassed</t>
+  </si>
+  <si>
+    <t>Cleanliness is a major part of comfort when staying in a hotel. The halls and elevator leading to my room needed a good cleaning. Bits and pieces of stuff were all over the carpet. Once inside, the first thing I saw was a shredded pleather office chair. I mean, it was unbelievable that someone thought that a beat up chair would make a good impression. I have pictures. The washcloths in the bathroom had HOLES in them and the ironing board hanging up in the entry way of the room had a burnt cover. The bed was comfortable, but I felt unclean because of everything else I had seen. I have stayed in Super 8s all across the United States - sometimes with my dog. So I'm given the "pet" room. Even that room had a higher standard of cleanliness that this place. Breakfast was the least possible they could get away with and stale as well. I skipped it. Other Super 8s I have stayed at had freshly made waffles, hard boiled eggs, fresh fruit along with the regular cereals yogurts. Not so for Brookshire. Super 8 should hold their franchisees to a higher standard.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Cleanliness is a major part of comfort when staying in a hotel. The halls and elevator leading to my room needed a good cleaning. Bits and pieces of stuff were all over the carpet. Once inside, the first thing I saw was a shredded pleather office chair. I mean, it was unbelievable that someone thought that a beat up chair would make a good impression. I have pictures. The washcloths in the bathroom had HOLES in them and the ironing board hanging up in the entry way of the room had a burnt cover. The bed was comfortable, but I felt unclean because of everything else I had seen. I have stayed in Super 8s all across the United States - sometimes with my dog. So I'm given the "pet" room. Even that room had a higher standard of cleanliness that this place. Breakfast was the least possible they could get away with and stale as well. I skipped it. Other Super 8s I have stayed at had freshly made waffles, hard boiled eggs, fresh fruit along with the regular cereals yogurts. Not so for Brookshire. Super 8 should hold their franchisees to a higher standard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r348243205-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>348243205</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although I quite possibly will never drive through brookshire, tx again, I will avoid all super 8 motels and possibly Wyndham properties all together. This place was in bad shape. Service was less than mediocre, they kept the air conditioning off in the entire hotel, minus the room. The entry carpet was really rough and uneven. The elevator had a bell so loud, it woke me up. And the desk agent conveniently placed me as close to the elevator as possible. Un-super 8. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r329512721-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>329512721</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Only place in town and it shows.  Thumbs down</t>
+  </si>
+  <si>
+    <t>We needed a place to stay but will not be back.  The exercise room hasn't been used in forever and had one machine plus a treadmill.  It smelled.  The business center had one computer that did not have an operating system.  The whole building smelled of pungent food being cooked all the time.  The only breakfast items were yogurt (one flavor, plain), toast and waffles, coffee and OJ.  It was a place to stay but we won't be back.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r327260674-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>327260674</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>ok stay</t>
+  </si>
+  <si>
+    <t>Stay was ok.  I wish that we would have 4 pillows on a KING BED instead of 3 pillows!  Especially when they know there are two people staying.  Same thing with towels.  Why do they only put 2 towels when there are 2 people staying.  Don't people know that women need a towel for their hair as well as 1 for their body??</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r325462037-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>325462037</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Terrible visit</t>
+  </si>
+  <si>
+    <t>I checked in Staurday (11/7/15) AND CHECKED OUT (11/8/15). The hotel manger was not customer friendly and could not give me answers to all of the following problems: He told me that the elevator was out and the only room he had was on the 3rd floor; yet he informed me that he housed 7 rooms on the 1st floor and 10 on the second. There were only three cars in the parking lot that nigh and only 5 in the parking lot the next morning. The towels in the room were rough and dengy, smoke detetor was hangin from the cellin, wall mounted TV was not working correctly, no hand rail in the shower to assist the elderly, executive chair at the desk was leather but most of the leather was missing, handle to turn on shower was falling off. Things was so bad I checked out as soon as I got enough rest. He informed me that he would email me a review form but as of this date I have yet to receive it. MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked in Staurday (11/7/15) AND CHECKED OUT (11/8/15). The hotel manger was not customer friendly and could not give me answers to all of the following problems: He told me that the elevator was out and the only room he had was on the 3rd floor; yet he informed me that he housed 7 rooms on the 1st floor and 10 on the second. There were only three cars in the parking lot that nigh and only 5 in the parking lot the next morning. The towels in the room were rough and dengy, smoke detetor was hangin from the cellin, wall mounted TV was not working correctly, no hand rail in the shower to assist the elderly, executive chair at the desk was leather but most of the leather was missing, handle to turn on shower was falling off. Things was so bad I checked out as soon as I got enough rest. He informed me that he would email me a review form but as of this date I have yet to receive it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r315860862-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>315860862</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r314514726-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>314514726</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r314136794-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>314136794</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the people were a delight.  They...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was clean and the people were a delight.  They took special care of my Mom while I attended a conference.  Breakfast was just the right combination for people who wanted something light and the coffee was wonderful.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r293926526-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>293926526</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>One star is too good.  I live in nearby Fulshear and  booked this hotel partially on points for my family who was visiting for my sons graduation this spring.  I checked them in and noticed that the hotel smelled of Indian food and sweat.  After one night, they couldn't stand it because of the smell and the uncomfortable beds so I cancelled the rest of the stay and booked them a room near the Katy Mills mall. Wyndham refunded my points but the hotel still charged me for the entire stay.  I booked this based on reviews but noticed afterwards that all the reviews that were positive, were from locals. I don't give many bad reviews on trip advisor but this was one of the worst hotels I've ever encountered (and I've stayed in hotels that cost $17 dollars a night!).   As a Wyndham rewards member, I'm disappointed that this hotel is part of the chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>One star is too good.  I live in nearby Fulshear and  booked this hotel partially on points for my family who was visiting for my sons graduation this spring.  I checked them in and noticed that the hotel smelled of Indian food and sweat.  After one night, they couldn't stand it because of the smell and the uncomfortable beds so I cancelled the rest of the stay and booked them a room near the Katy Mills mall. Wyndham refunded my points but the hotel still charged me for the entire stay.  I booked this based on reviews but noticed afterwards that all the reviews that were positive, were from locals. I don't give many bad reviews on trip advisor but this was one of the worst hotels I've ever encountered (and I've stayed in hotels that cost $17 dollars a night!).   As a Wyndham rewards member, I'm disappointed that this hotel is part of the chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r291562114-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>291562114</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Worst motel night yet!</t>
+  </si>
+  <si>
+    <t>A/C had no adjustment, only full on or full off! Shower head way past working condition, worst/cheapest towels I've ever used!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r278320253-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>278320253</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r270548252-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>270548252</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Sufficient</t>
+  </si>
+  <si>
+    <t>The room and bed were large, I didn't see any bugs (huuuuge plus), and the hotel was definitely sufficient overall... but it had a couple strange characteristics.  The hallway carpets crinkled under foot, the bathroom light didn't work for the majority of the time (admittedly I did not report this because i didn't want to bother with getting staff involved), and the breakfast was paltry.  The price (about $84/night after taxes) seems a bit steep all things considered, but i slept well which I guess is what matters most.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r267229420-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>267229420</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r262992697-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>262992697</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>great great stay great great stay great great stay great...</t>
+  </si>
+  <si>
+    <t>great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay! great great stay great great stay great great stay  great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay! great great stay great great stay great great stay  great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay! great great stay great great stay great great stay  great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay! great great stay great great stay great great stayMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay! great great stay great great stay great great stay  great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay! great great stay great great stay great great stay  great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay! great great stay great great stay great great stay  great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay great great stay! great great stay great great stay great great stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r260601962-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>260601962</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Definitely Going Downhill!</t>
+  </si>
+  <si>
+    <t>I have stayed at this Super 8 location several times over the last 7 years as it is the closest place to stay near my grandparents house. It used to be a nice place to stay; unfortunately over the last couple of years it has not been kept up as it should be. There is a very distinct odor when you walk into the lobby (smells like curry). The hallways also have a weird smell. The rooms did not smell, which was good. The whole place looks run down, but a few easy fixes would greatly improve the appearance. The carpet was lumpy in all the hallways, big stain in front of elevator, and general lack of vacuuming in hallways and elevator. Having the carpet stretched, cleaned, and vacuumed would make a huge difference. There used to be ice machines on all 3 floors by the elevator. Apparently 2 of the 3 have broken and were not ever replaced as the only remaining ice machine is on the first floor. Guess what? It wasn't working either. I went to front desk to ask and the lady just said "no it's not working". Maybe you shouldn't just have 1 ice machine. At the very least put up a sign that says "out of order"! As for the room, the air conditioner worked fine and the beds were ok. The furniture was ok, but older. The TV was a newer flat screen,...I have stayed at this Super 8 location several times over the last 7 years as it is the closest place to stay near my grandparents house. It used to be a nice place to stay; unfortunately over the last couple of years it has not been kept up as it should be. There is a very distinct odor when you walk into the lobby (smells like curry). The hallways also have a weird smell. The rooms did not smell, which was good. The whole place looks run down, but a few easy fixes would greatly improve the appearance. The carpet was lumpy in all the hallways, big stain in front of elevator, and general lack of vacuuming in hallways and elevator. Having the carpet stretched, cleaned, and vacuumed would make a huge difference. There used to be ice machines on all 3 floors by the elevator. Apparently 2 of the 3 have broken and were not ever replaced as the only remaining ice machine is on the first floor. Guess what? It wasn't working either. I went to front desk to ask and the lady just said "no it's not working". Maybe you shouldn't just have 1 ice machine. At the very least put up a sign that says "out of order"! As for the room, the air conditioner worked fine and the beds were ok. The furniture was ok, but older. The TV was a newer flat screen, which was attached to the wall because it wouldn't fit in existing furniture, which was out-dated. The light fixture between beds was cracked. The alarm clock did not work (display didn't show numbers correctly). The bathroom had hair in the tub, which was peeling in places. The bathtub faucet was difficult to move and there was very little water pressure. My husband picked up a "clean" washcloth to find hairs on it. We had already decided not to eat breakfast here based on previous experience and personal preference, but it's pretty sad when there is only 1 piece of bread available at 8 am. This wasn't the worst place I've stayed, but will pay more and stay elsewhere next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this Super 8 location several times over the last 7 years as it is the closest place to stay near my grandparents house. It used to be a nice place to stay; unfortunately over the last couple of years it has not been kept up as it should be. There is a very distinct odor when you walk into the lobby (smells like curry). The hallways also have a weird smell. The rooms did not smell, which was good. The whole place looks run down, but a few easy fixes would greatly improve the appearance. The carpet was lumpy in all the hallways, big stain in front of elevator, and general lack of vacuuming in hallways and elevator. Having the carpet stretched, cleaned, and vacuumed would make a huge difference. There used to be ice machines on all 3 floors by the elevator. Apparently 2 of the 3 have broken and were not ever replaced as the only remaining ice machine is on the first floor. Guess what? It wasn't working either. I went to front desk to ask and the lady just said "no it's not working". Maybe you shouldn't just have 1 ice machine. At the very least put up a sign that says "out of order"! As for the room, the air conditioner worked fine and the beds were ok. The furniture was ok, but older. The TV was a newer flat screen,...I have stayed at this Super 8 location several times over the last 7 years as it is the closest place to stay near my grandparents house. It used to be a nice place to stay; unfortunately over the last couple of years it has not been kept up as it should be. There is a very distinct odor when you walk into the lobby (smells like curry). The hallways also have a weird smell. The rooms did not smell, which was good. The whole place looks run down, but a few easy fixes would greatly improve the appearance. The carpet was lumpy in all the hallways, big stain in front of elevator, and general lack of vacuuming in hallways and elevator. Having the carpet stretched, cleaned, and vacuumed would make a huge difference. There used to be ice machines on all 3 floors by the elevator. Apparently 2 of the 3 have broken and were not ever replaced as the only remaining ice machine is on the first floor. Guess what? It wasn't working either. I went to front desk to ask and the lady just said "no it's not working". Maybe you shouldn't just have 1 ice machine. At the very least put up a sign that says "out of order"! As for the room, the air conditioner worked fine and the beds were ok. The furniture was ok, but older. The TV was a newer flat screen, which was attached to the wall because it wouldn't fit in existing furniture, which was out-dated. The light fixture between beds was cracked. The alarm clock did not work (display didn't show numbers correctly). The bathroom had hair in the tub, which was peeling in places. The bathtub faucet was difficult to move and there was very little water pressure. My husband picked up a "clean" washcloth to find hairs on it. We had already decided not to eat breakfast here based on previous experience and personal preference, but it's pretty sad when there is only 1 piece of bread available at 8 am. This wasn't the worst place I've stayed, but will pay more and stay elsewhere next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r260237966-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>260237966</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r259837784-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>259837784</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Clean, very friendly staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a very nice stay. Clean rooms , comfy beds and very helpful staff. I would defiantly reccomend to anyone who doesn't want to spend a lot. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r257191493-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>257191493</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>The worst place to stay in Texas EVER!!!</t>
+  </si>
+  <si>
+    <t>My bad experience began upon entering the main lobby.  I was greeted by rudeness and the person working the desk would not even come out of the office but rather yelled at me from the back room.  When I inquired about being pet friendly, they said yes however, someone again yelled from the back office.."AND ITS NOT REFUNDABLE".  The hallways smelled damp and musty and upon entering the room, we discovered black mold in the bathroom and the fiberglass coating in the bathub was pealing off.  The 2nd floor smelled like something had been burning or on fire and they had the window opened at the end of the hall when it was 24 degrees outdoors.  We also found a squashed ROACH on the wall that has obviously been left there for a long time.  The items in the vending machine were old and stale.  The following morning, having said they offered contentinel breakfast, the coffee was stone cold, there was not a piece of bread in sight for toast, nor a bagel or anything else.  Basically the breakfast was non existent.  The staff was beyond rude and unhelpful to any of our needs and upon check out didnt even ask how our stay was, just grabbed the key and shoved a bill in front of me to sign.  Having traveled on the road for many days, and having stayed in many hotels and motels, this by far was the...My bad experience began upon entering the main lobby.  I was greeted by rudeness and the person working the desk would not even come out of the office but rather yelled at me from the back room.  When I inquired about being pet friendly, they said yes however, someone again yelled from the back office.."AND ITS NOT REFUNDABLE".  The hallways smelled damp and musty and upon entering the room, we discovered black mold in the bathroom and the fiberglass coating in the bathub was pealing off.  The 2nd floor smelled like something had been burning or on fire and they had the window opened at the end of the hall when it was 24 degrees outdoors.  We also found a squashed ROACH on the wall that has obviously been left there for a long time.  The items in the vending machine were old and stale.  The following morning, having said they offered contentinel breakfast, the coffee was stone cold, there was not a piece of bread in sight for toast, nor a bagel or anything else.  Basically the breakfast was non existent.  The staff was beyond rude and unhelpful to any of our needs and upon check out didnt even ask how our stay was, just grabbed the key and shoved a bill in front of me to sign.  Having traveled on the road for many days, and having stayed in many hotels and motels, this by far was the WORST one I ever stayed in.  I honestly dont know how these people stay in business.  I guess they prey on weary travelers coming off the interstate looking for a place to stay.  I have stayed in Super 8's before and NONE of them were as horrible as this.  I would NEVER recommend this place to anyone, nor would I ever stay here again.  I would go out of my way to find another hotel if I was ever in that area again.  If there was a rating worse than "Terrible" here on Trip Advisor, this place would most definately receive it from me.  The Super 8 motel chain should be ASHAMED of this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>My bad experience began upon entering the main lobby.  I was greeted by rudeness and the person working the desk would not even come out of the office but rather yelled at me from the back room.  When I inquired about being pet friendly, they said yes however, someone again yelled from the back office.."AND ITS NOT REFUNDABLE".  The hallways smelled damp and musty and upon entering the room, we discovered black mold in the bathroom and the fiberglass coating in the bathub was pealing off.  The 2nd floor smelled like something had been burning or on fire and they had the window opened at the end of the hall when it was 24 degrees outdoors.  We also found a squashed ROACH on the wall that has obviously been left there for a long time.  The items in the vending machine were old and stale.  The following morning, having said they offered contentinel breakfast, the coffee was stone cold, there was not a piece of bread in sight for toast, nor a bagel or anything else.  Basically the breakfast was non existent.  The staff was beyond rude and unhelpful to any of our needs and upon check out didnt even ask how our stay was, just grabbed the key and shoved a bill in front of me to sign.  Having traveled on the road for many days, and having stayed in many hotels and motels, this by far was the...My bad experience began upon entering the main lobby.  I was greeted by rudeness and the person working the desk would not even come out of the office but rather yelled at me from the back room.  When I inquired about being pet friendly, they said yes however, someone again yelled from the back office.."AND ITS NOT REFUNDABLE".  The hallways smelled damp and musty and upon entering the room, we discovered black mold in the bathroom and the fiberglass coating in the bathub was pealing off.  The 2nd floor smelled like something had been burning or on fire and they had the window opened at the end of the hall when it was 24 degrees outdoors.  We also found a squashed ROACH on the wall that has obviously been left there for a long time.  The items in the vending machine were old and stale.  The following morning, having said they offered contentinel breakfast, the coffee was stone cold, there was not a piece of bread in sight for toast, nor a bagel or anything else.  Basically the breakfast was non existent.  The staff was beyond rude and unhelpful to any of our needs and upon check out didnt even ask how our stay was, just grabbed the key and shoved a bill in front of me to sign.  Having traveled on the road for many days, and having stayed in many hotels and motels, this by far was the WORST one I ever stayed in.  I honestly dont know how these people stay in business.  I guess they prey on weary travelers coming off the interstate looking for a place to stay.  I have stayed in Super 8's before and NONE of them were as horrible as this.  I would NEVER recommend this place to anyone, nor would I ever stay here again.  I would go out of my way to find another hotel if I was ever in that area again.  If there was a rating worse than "Terrible" here on Trip Advisor, this place would most definately receive it from me.  The Super 8 motel chain should be ASHAMED of this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r250838657-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>250838657</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>Great palce to stay in this area</t>
+  </si>
+  <si>
+    <t>Right on I-10 for easy access, plenty of places to grab a bite. Anytime we have somewhere to be west of Houston, we try to make it here to avoid the crazy Houston traffic. Nothing exquisite, just an affordable place.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r246220827-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>246220827</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>We were traveling from the West.  Wanted to tour Fine Arts Museum in Houston and avoid the high downtown prices.  I'd taken a fall and needed a handicap room.  We called ahead and they saved us one.  Everything was fine.  The room comfortable and clean. Quiet</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r233633591-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>233633591</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r232611508-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>232611508</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>Brookshire trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the 4th time I've stayed at this Super 8 this year.  It's a good value for the money. The rooms are nice and clean.   The hotel is safe for single women travelers. The only drawback is the water pressure which is not very strong. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r229621543-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>229621543</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>Brookshire Super 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So so. I routinely leave motels well before the provided breakfast is available. Example: I had breakfast at the first I-10 east bound rest area in Mississippi after leaving Brookshire. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r220444141-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>220444141</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r216471401-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>216471401</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r216093850-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>216093850</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Great Value with Great Staff.</t>
+  </si>
+  <si>
+    <t>Super 8 Hotel is very clean and front desk manager is very nice. For the price you can't go wrong. As you can see from my previous reviews. I'm very picky and only stay at the best hotels around for the price. The free morning cereal, toast and waffle breakfast is good. I would like to see Bananas added because sometimes your so busy its just easier to grab a banana. The only issue I had  is the thin blanket on the bed. I let the manager know that I'm used to comforters and could I get two more blankets. I like a little weight in my blankets. The manager said no problem he understands and gave me two additional thin blankets for my bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Super 8 Hotel is very clean and front desk manager is very nice. For the price you can't go wrong. As you can see from my previous reviews. I'm very picky and only stay at the best hotels around for the price. The free morning cereal, toast and waffle breakfast is good. I would like to see Bananas added because sometimes your so busy its just easier to grab a banana. The only issue I had  is the thin blanket on the bed. I let the manager know that I'm used to comforters and could I get two more blankets. I like a little weight in my blankets. The manager said no problem he understands and gave me two additional thin blankets for my bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r212313319-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>212313319</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>I have stayed here several times.  The proprietors are very...</t>
+  </si>
+  <si>
+    <t>I have stayed here several times.  The proprietors are very concerned with your stay and helpful and friendly.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r209809507-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>209809507</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r208476421-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>208476421</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r201104261-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>201104261</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r200025925-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>200025925</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r199514234-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>199514234</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r197890838-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>197890838</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r197298295-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>197298295</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>It was a place to sleep</t>
+  </si>
+  <si>
+    <t>I felt safe and the bed was comfortable... The bath faucet cold/hot came off the wall in my hand.  The desk chair was pleather and all the pleather was peeling off and looked nasty. We called the desk and the Manager showed up promptly to replace the chair and look at the faucet. We were not aware but I had left a makeup bag on the bed and room service did not change the sheets. We were informed if ANYTHING is left on the bed they are not to touch the bed, therefore our bed linens were not changed out. The continental breakfast was not appealing to look at so we decided to eat someplace else. Coffee was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>I felt safe and the bed was comfortable... The bath faucet cold/hot came off the wall in my hand.  The desk chair was pleather and all the pleather was peeling off and looked nasty. We called the desk and the Manager showed up promptly to replace the chair and look at the faucet. We were not aware but I had left a makeup bag on the bed and room service did not change the sheets. We were informed if ANYTHING is left on the bed they are not to touch the bed, therefore our bed linens were not changed out. The continental breakfast was not appealing to look at so we decided to eat someplace else. Coffee was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r195387443-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>195387443</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Nice Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay was overnite. The room was large and the bed was comfortable. Coffee maker was not working in room 316 </t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r190288104-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>190288104</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r188492707-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>188492707</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r187398207-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>187398207</t>
+  </si>
+  <si>
+    <t>12/11/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r185221426-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>185221426</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r184637996-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>184637996</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>We stay here on Nov.3 - 6. We had a great stay with them the room was VERY clean and the LADY at the desk was VERY NICE. The breakfast was good to my son Loved the waffle. We was there to visit my niece that has cancer. We will stay with them again on our next visit. EVERYTHING WAS VERY CLEAN AND SMELL GOOD!!! Thank You so much</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r183201522-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>183201522</t>
+  </si>
+  <si>
+    <t>11/01/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r178470621-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>178470621</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>Below Average</t>
+  </si>
+  <si>
+    <t>During my stay I observed the carpet was stained.  The pillows were extremely uncomfortable and lumpy.  I also felt the decor was extremely outdated and the television should be updated like every other hotel.  I only needed to stay one night so the price was reasonable, however having been in business for a few years ownership should strive to provide the best rather than trying to cut corners and be cheap.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r176906648-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>176906648</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>Poor Quality</t>
+  </si>
+  <si>
+    <t>Poor quality linens, poor towels/face cloths, poor quality pillows, cigarette burn in comforter, carpet "crunched" when walked on due to it's age. Smoky smell i throughout the property due to smoking rooms on all floors. Generally, this property needs an overhaul. This was my first and last experience with the Super8 brand.  It's hard to believe that Wyndham is associated with this brand.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r167932780-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>167932780</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r162321317-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>162321317</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r162211808-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>162211808</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r161822467-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>161822467</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r154705317-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>154705317</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>good stay,  clean hotel.  quiet.  needed more pillows...</t>
+  </si>
+  <si>
+    <t>good stay,  clean hotel.  quiet.  needed more pillows.... the two were too flat.  A clerk was not available at check out,,,,,</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r154380975-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>154380975</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Not what it used to be.</t>
+  </si>
+  <si>
+    <t>My issues were the room was not real clean dirt around the base boards an old sock I think was laying under the lamp I did not touch it. The bath towels were small and not even garage worthy. Sheets on the bed were not tucked in and were worn out. Old TV and the furniture was old and beat up. And the A/C unit rattled and hummed loudly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r154360741-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>154360741</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r151557196-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>151557196</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r151493807-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>151493807</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r150893159-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>150893159</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r147339957-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>147339957</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r147307561-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>147307561</t>
+  </si>
+  <si>
+    <t>we have stayed in this hotel for three years now in...</t>
+  </si>
+  <si>
+    <t>we have stayed in this hotel for three years now in December     they have always accomodated us so well   this year we needed a crib, which they supplied, but then we decided it woudnt work and they brought us a roll away    very much appreciatedthey had a waffle maker for breakfast just awesome</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r145984088-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>145984088</t>
+  </si>
+  <si>
+    <t>11/22/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r145265254-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>145265254</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r145158409-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>145158409</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>Best of everything!</t>
+  </si>
+  <si>
+    <t>This hotel was exceptionally clean and well maintained.  Everything was in pristine condition.  We did not stay for the breakfast, but the breakfast area seemed clean and well organized.  The lobby was especially nice.Our only problem was that the remote control for the TV had a corroded battery in it.  The manager immediately exchanged it for a new one, with apologies.We would definitely stay here again and would recommend it to our friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r144241631-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>144241631</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r143070823-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>143070823</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r142574625-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>142574625</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r142436540-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>142436540</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r128583685-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>128583685</t>
+  </si>
+  <si>
+    <t>04/25/2012</t>
+  </si>
+  <si>
+    <t>No Continental Breakfast</t>
+  </si>
+  <si>
+    <t>There is no Continental Breakfast here.  Coffee, generic cereal, and stale bread does not constitute a continental breakfast.  If your justifying the over priced with because breakfast is included. Add another $23.00 for each night because you'll be going to the local Dennys for Breakfast!!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r123041089-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>123041089</t>
+  </si>
+  <si>
+    <t>01/13/2012</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Very good value for money spent.  I need a refrigerator for meds.  There is a refrigerator and microwave in every room.  It is always quiet maybe because I stay only on weekdays.  I have never tried the continental breakfast.  There is a curry cooking fragrance but once in my room there is no smell.  I've stayed there five times.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r119618499-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>119618499</t>
+  </si>
+  <si>
+    <t>10/23/2011</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel</t>
+  </si>
+  <si>
+    <t>Decent value for the money.  Room was clean and all facilities in good shape.  Continental breakfast was just ok.  Check-in was a bit slow, as the staff seemed to be learning what to do.  The one thing I found annoying was that the whole first floor smelled like curry cooking.  Would probably stay here again.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r111361845-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>111361845</t>
+  </si>
+  <si>
+    <t>06/03/2011</t>
+  </si>
+  <si>
+    <t>The rooms took 3 hours to cool down! And overpriced!</t>
+  </si>
+  <si>
+    <t>We stopped in with only 8 hours to sleep and three were sweating while waiting on the upstairs room to cool off. We were also tried another room here and it was over 110 degrees in the room also. So we had 50% of the night sweating and 50% after 4am freezing. Now I left with a cold.. So if you want to sleep go somewhere else. The outside property was not clean and there was trash everywhere.. Also at $50.00 I felt it was overpriced.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r78903387-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>78903387</t>
+  </si>
+  <si>
+    <t>09/09/2010</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>I liked this hotel, especially for the price.  My room was clean and very quiet, and the shower had very good water pressure.  The A/C was extremely cold--two thumbs up for that.  The front desk staff was friendly.  The continental breakfast wasn't fancy, but it got the job done.  Overall, a good hotel, especially for the price.  I would definitely stay here again if I'm ever in the Brookshire/Katy area.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r53924099-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>53924099</t>
+  </si>
+  <si>
+    <t>01/20/2010</t>
+  </si>
+  <si>
+    <t>Dirty and bugs!</t>
+  </si>
+  <si>
+    <t>I do not understand how this hotel got good reviews. We stayed there one night in January. The room as well as the bathroom were dirty  and I got beaten by some bugs during the night. The price was much too expensive for the room. We stayed in much better places and at least clean for less money.About breakfast, well it was hot water with a little taste of coffee and what was there to eat was not really good and I have no idea how long it was already there. Not fresh.I would not recommand this hotel to anybody I like.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r35379940-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>35379940</t>
+  </si>
+  <si>
+    <t>07/21/2009</t>
+  </si>
+  <si>
+    <t>Totally Average and Slightly Overpriced</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for 2 nights last weekend while attending a family reunion in town.  I found the hotel perfectly serviceable but did think it was somewhat overpriced.  Here are the pros and cons as I see them:Pros:Clean, large roomsGood customer serviceCons:Expensive for what it is (a low range hotel in the middle of nowhere)Yucky towels (small, thin and rough)</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55536-d816863-r16695986-Super_8_by_Wyndham_Brookshire_TX-Brookshire_Texas.html</t>
+  </si>
+  <si>
+    <t>16695986</t>
+  </si>
+  <si>
+    <t>06/05/2008</t>
+  </si>
+  <si>
+    <t>Terrible odor, clean rooms</t>
+  </si>
+  <si>
+    <t>Rooms were clean,  and normally that is the main thing we look for when traveling.  However we stayed at this place for a week and did encounter some problems.   The odor in this place is terrible.   The onsite manager and family live there and they cook with CURRY just about every night.  The smell was nauseating.  Just about everyone staying there commented on that.  It was really bad.  We had problems with the cleaning crew coming into our room unannounced, without even a knock.  This did stop when we reported it to the management.  When you book a room for a week they charge you immediately for the full amount and have to deduct the charges if you stay less than that.   Never had that happen before. I would not stay there again because of the odor.   But the room was CLEAN.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>Rooms were clean,  and normally that is the main thing we look for when traveling.  However we stayed at this place for a week and did encounter some problems.   The odor in this place is terrible.   The onsite manager and family live there and they cook with CURRY just about every night.  The smell was nauseating.  Just about everyone staying there commented on that.  It was really bad.  We had problems with the cleaning crew coming into our room unannounced, without even a knock.  This did stop when we reported it to the management.  When you book a room for a week they charge you immediately for the full amount and have to deduct the charges if you stay less than that.   Never had that happen before. I would not stay there again because of the odor.   But the room was CLEAN.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2041,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2073,6709 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>127</v>
+      </c>
+      <c r="O18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" t="s">
+        <v>145</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>140</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>140</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>167</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" t="s">
+        <v>174</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>167</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>178</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>184</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s">
+        <v>189</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" t="s">
+        <v>194</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>195</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>197</v>
+      </c>
+      <c r="J32" t="s">
+        <v>198</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>184</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K33" t="s">
+        <v>202</v>
+      </c>
+      <c r="L33" t="s">
+        <v>203</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>184</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>209</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s">
+        <v>213</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>214</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>217</v>
+      </c>
+      <c r="J36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K36" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" t="s">
+        <v>220</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>221</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" t="s">
+        <v>225</v>
+      </c>
+      <c r="K37" t="s">
+        <v>226</v>
+      </c>
+      <c r="L37" t="s">
+        <v>227</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>221</v>
+      </c>
+      <c r="O37" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" t="s">
+        <v>232</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>233</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>235</v>
+      </c>
+      <c r="J39" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" t="s">
+        <v>237</v>
+      </c>
+      <c r="L39" t="s">
+        <v>238</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>233</v>
+      </c>
+      <c r="O39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>240</v>
+      </c>
+      <c r="J40" t="s">
+        <v>241</v>
+      </c>
+      <c r="K40" t="s">
+        <v>242</v>
+      </c>
+      <c r="L40" t="s">
+        <v>243</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>248</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>250</v>
+      </c>
+      <c r="J42" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>248</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" t="s">
+        <v>255</v>
+      </c>
+      <c r="L43" t="s">
+        <v>256</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>248</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>258</v>
+      </c>
+      <c r="J44" t="s">
+        <v>259</v>
+      </c>
+      <c r="K44" t="s">
+        <v>260</v>
+      </c>
+      <c r="L44" t="s">
+        <v>261</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>262</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>265</v>
+      </c>
+      <c r="J45" t="s">
+        <v>266</v>
+      </c>
+      <c r="K45" t="s">
+        <v>267</v>
+      </c>
+      <c r="L45" t="s">
+        <v>268</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>269</v>
+      </c>
+      <c r="O45" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>271</v>
+      </c>
+      <c r="J46" t="s">
+        <v>272</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>213</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>273</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>275</v>
+      </c>
+      <c r="J47" t="s">
+        <v>276</v>
+      </c>
+      <c r="K47" t="s">
+        <v>277</v>
+      </c>
+      <c r="L47" t="s">
+        <v>278</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>262</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>280</v>
+      </c>
+      <c r="J48" t="s">
+        <v>281</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>282</v>
+      </c>
+      <c r="O48" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>284</v>
+      </c>
+      <c r="J49" t="s">
+        <v>285</v>
+      </c>
+      <c r="K49" t="s">
+        <v>286</v>
+      </c>
+      <c r="L49" t="s">
+        <v>287</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>288</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>290</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>291</v>
+      </c>
+      <c r="J50" t="s">
+        <v>292</v>
+      </c>
+      <c r="K50" t="s">
+        <v>293</v>
+      </c>
+      <c r="L50" t="s">
+        <v>294</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" t="s">
+        <v>298</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s">
+        <v>213</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>288</v>
+      </c>
+      <c r="O51" t="s">
+        <v>299</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>300</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>301</v>
+      </c>
+      <c r="J52" t="s">
+        <v>302</v>
+      </c>
+      <c r="K52" t="s">
+        <v>303</v>
+      </c>
+      <c r="L52" t="s">
+        <v>304</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>288</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>305</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>306</v>
+      </c>
+      <c r="J53" t="s">
+        <v>307</v>
+      </c>
+      <c r="K53" t="s">
+        <v>308</v>
+      </c>
+      <c r="L53" t="s">
+        <v>309</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>310</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>312</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>313</v>
+      </c>
+      <c r="J54" t="s">
+        <v>314</v>
+      </c>
+      <c r="K54" t="s">
+        <v>315</v>
+      </c>
+      <c r="L54" t="s">
+        <v>316</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>317</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>319</v>
+      </c>
+      <c r="J55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K55" t="s">
+        <v>321</v>
+      </c>
+      <c r="L55" t="s">
+        <v>322</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>323</v>
+      </c>
+      <c r="O55" t="s">
+        <v>84</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>325</v>
+      </c>
+      <c r="J56" t="s">
+        <v>326</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>327</v>
+      </c>
+      <c r="O56" t="s">
+        <v>299</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>328</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>329</v>
+      </c>
+      <c r="J57" t="s">
+        <v>330</v>
+      </c>
+      <c r="K57" t="s">
+        <v>331</v>
+      </c>
+      <c r="L57" t="s">
+        <v>332</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>327</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>333</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>334</v>
+      </c>
+      <c r="J58" t="s">
+        <v>335</v>
+      </c>
+      <c r="K58" t="s">
+        <v>336</v>
+      </c>
+      <c r="L58" t="s">
+        <v>337</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>338</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>339</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>340</v>
+      </c>
+      <c r="J59" t="s">
+        <v>341</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>338</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>342</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>343</v>
+      </c>
+      <c r="J60" t="s">
+        <v>344</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>345</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>346</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>347</v>
+      </c>
+      <c r="J61" t="s">
+        <v>348</v>
+      </c>
+      <c r="K61" t="s">
+        <v>349</v>
+      </c>
+      <c r="L61" t="s">
+        <v>350</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>345</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>352</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>353</v>
+      </c>
+      <c r="J62" t="s">
+        <v>354</v>
+      </c>
+      <c r="K62" t="s">
+        <v>355</v>
+      </c>
+      <c r="L62" t="s">
+        <v>356</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>357</v>
+      </c>
+      <c r="O62" t="s">
+        <v>84</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>358</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>359</v>
+      </c>
+      <c r="J63" t="s">
+        <v>360</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>357</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>361</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>362</v>
+      </c>
+      <c r="J64" t="s">
+        <v>363</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>317</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>364</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>365</v>
+      </c>
+      <c r="J65" t="s">
+        <v>366</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>367</v>
+      </c>
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>368</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>369</v>
+      </c>
+      <c r="J66" t="s">
+        <v>370</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>367</v>
+      </c>
+      <c r="O66" t="s">
+        <v>299</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>371</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>372</v>
+      </c>
+      <c r="J67" t="s">
+        <v>373</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>374</v>
+      </c>
+      <c r="O67" t="s">
+        <v>299</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>375</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>376</v>
+      </c>
+      <c r="J68" t="s">
+        <v>377</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>374</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>378</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>379</v>
+      </c>
+      <c r="J69" t="s">
+        <v>380</v>
+      </c>
+      <c r="K69" t="s">
+        <v>381</v>
+      </c>
+      <c r="L69" t="s">
+        <v>382</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>374</v>
+      </c>
+      <c r="O69" t="s">
+        <v>84</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>384</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>385</v>
+      </c>
+      <c r="J70" t="s">
+        <v>386</v>
+      </c>
+      <c r="K70" t="s">
+        <v>387</v>
+      </c>
+      <c r="L70" t="s">
+        <v>388</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>389</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>390</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>391</v>
+      </c>
+      <c r="J71" t="s">
+        <v>392</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>393</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>394</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>395</v>
+      </c>
+      <c r="J72" t="s">
+        <v>396</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>397</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>398</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>399</v>
+      </c>
+      <c r="J73" t="s">
+        <v>400</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>401</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>402</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>403</v>
+      </c>
+      <c r="J74" t="s">
+        <v>404</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s">
+        <v>213</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>401</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>405</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>406</v>
+      </c>
+      <c r="J75" t="s">
+        <v>407</v>
+      </c>
+      <c r="K75" t="s">
+        <v>408</v>
+      </c>
+      <c r="L75" t="s">
+        <v>409</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>401</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>410</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>411</v>
+      </c>
+      <c r="J76" t="s">
+        <v>412</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>413</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>414</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>415</v>
+      </c>
+      <c r="J77" t="s">
+        <v>416</v>
+      </c>
+      <c r="K77" t="s">
+        <v>417</v>
+      </c>
+      <c r="L77" t="s">
+        <v>418</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>419</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>420</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>421</v>
+      </c>
+      <c r="J78" t="s">
+        <v>422</v>
+      </c>
+      <c r="K78" t="s">
+        <v>423</v>
+      </c>
+      <c r="L78" t="s">
+        <v>424</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>419</v>
+      </c>
+      <c r="O78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>425</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>426</v>
+      </c>
+      <c r="J79" t="s">
+        <v>427</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>428</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>429</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>430</v>
+      </c>
+      <c r="J80" t="s">
+        <v>431</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>432</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>433</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>434</v>
+      </c>
+      <c r="J81" t="s">
+        <v>435</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>432</v>
+      </c>
+      <c r="O81" t="s">
+        <v>84</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>436</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>437</v>
+      </c>
+      <c r="J82" t="s">
+        <v>438</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>432</v>
+      </c>
+      <c r="O82" t="s">
+        <v>59</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>439</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>440</v>
+      </c>
+      <c r="J83" t="s">
+        <v>441</v>
+      </c>
+      <c r="K83" t="s">
+        <v>442</v>
+      </c>
+      <c r="L83" t="s">
+        <v>443</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>444</v>
+      </c>
+      <c r="O83" t="s">
+        <v>84</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>445</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>446</v>
+      </c>
+      <c r="J84" t="s">
+        <v>447</v>
+      </c>
+      <c r="K84" t="s">
+        <v>448</v>
+      </c>
+      <c r="L84" t="s">
+        <v>449</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>444</v>
+      </c>
+      <c r="O84" t="s">
+        <v>66</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>450</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>451</v>
+      </c>
+      <c r="J85" t="s">
+        <v>447</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s">
+        <v>213</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>444</v>
+      </c>
+      <c r="O85" t="s">
+        <v>299</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>452</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>453</v>
+      </c>
+      <c r="J86" t="s">
+        <v>454</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s">
+        <v>213</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>455</v>
+      </c>
+      <c r="O86" t="s">
+        <v>59</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>456</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>457</v>
+      </c>
+      <c r="J87" t="s">
+        <v>458</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>455</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>459</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>460</v>
+      </c>
+      <c r="J88" t="s">
+        <v>461</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s">
+        <v>213</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>462</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>463</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>464</v>
+      </c>
+      <c r="J89" t="s">
+        <v>465</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s">
+        <v>213</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>466</v>
+      </c>
+      <c r="O89" t="s">
+        <v>66</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>467</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>468</v>
+      </c>
+      <c r="J90" t="s">
+        <v>465</v>
+      </c>
+      <c r="K90" t="s">
+        <v>469</v>
+      </c>
+      <c r="L90" t="s">
+        <v>470</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>466</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>471</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>472</v>
+      </c>
+      <c r="J91" t="s">
+        <v>473</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>474</v>
+      </c>
+      <c r="O91" t="s">
+        <v>59</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>475</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>476</v>
+      </c>
+      <c r="J92" t="s">
+        <v>477</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>474</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>478</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>479</v>
+      </c>
+      <c r="J93" t="s">
+        <v>480</v>
+      </c>
+      <c r="K93" t="s">
+        <v>481</v>
+      </c>
+      <c r="L93" t="s">
+        <v>482</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>474</v>
+      </c>
+      <c r="O93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>483</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>484</v>
+      </c>
+      <c r="J94" t="s">
+        <v>485</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>486</v>
+      </c>
+      <c r="O94" t="s">
+        <v>59</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>487</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>488</v>
+      </c>
+      <c r="J95" t="s">
+        <v>489</v>
+      </c>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s"/>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>486</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>490</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>491</v>
+      </c>
+      <c r="J96" t="s">
+        <v>492</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s">
+        <v>213</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>486</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>493</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>494</v>
+      </c>
+      <c r="J97" t="s">
+        <v>495</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>486</v>
+      </c>
+      <c r="O97" t="s">
+        <v>84</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>496</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>497</v>
+      </c>
+      <c r="J98" t="s">
+        <v>498</v>
+      </c>
+      <c r="K98" t="s">
+        <v>499</v>
+      </c>
+      <c r="L98" t="s">
+        <v>500</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>501</v>
+      </c>
+      <c r="O98" t="s">
+        <v>84</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>502</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>503</v>
+      </c>
+      <c r="J99" t="s">
+        <v>504</v>
+      </c>
+      <c r="K99" t="s">
+        <v>505</v>
+      </c>
+      <c r="L99" t="s">
+        <v>506</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>507</v>
+      </c>
+      <c r="O99" t="s">
+        <v>59</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>508</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>509</v>
+      </c>
+      <c r="J100" t="s">
+        <v>510</v>
+      </c>
+      <c r="K100" t="s">
+        <v>511</v>
+      </c>
+      <c r="L100" t="s">
+        <v>512</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>513</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>514</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>515</v>
+      </c>
+      <c r="J101" t="s">
+        <v>516</v>
+      </c>
+      <c r="K101" t="s">
+        <v>517</v>
+      </c>
+      <c r="L101" t="s">
+        <v>518</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>2</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>519</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>520</v>
+      </c>
+      <c r="J102" t="s">
+        <v>521</v>
+      </c>
+      <c r="K102" t="s">
+        <v>522</v>
+      </c>
+      <c r="L102" t="s">
+        <v>523</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>524</v>
+      </c>
+      <c r="O102" t="s">
+        <v>66</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>525</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>526</v>
+      </c>
+      <c r="J103" t="s">
+        <v>527</v>
+      </c>
+      <c r="K103" t="s">
+        <v>528</v>
+      </c>
+      <c r="L103" t="s">
+        <v>529</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>530</v>
+      </c>
+      <c r="O103" t="s">
+        <v>84</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>531</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>532</v>
+      </c>
+      <c r="J104" t="s">
+        <v>533</v>
+      </c>
+      <c r="K104" t="s">
+        <v>534</v>
+      </c>
+      <c r="L104" t="s">
+        <v>535</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>536</v>
+      </c>
+      <c r="O104" t="s">
+        <v>84</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>56981</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>537</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>538</v>
+      </c>
+      <c r="J105" t="s">
+        <v>539</v>
+      </c>
+      <c r="K105" t="s">
+        <v>540</v>
+      </c>
+      <c r="L105" t="s">
+        <v>541</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s">
+        <v>542</v>
+      </c>
+      <c r="O105" t="s">
+        <v>299</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>2</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
